--- a/database/industries/khodro/khedizel/product/quarterly.xlsx
+++ b/database/industries/khodro/khedizel/product/quarterly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khedizel\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\khodro\khedizel\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/database/industries/khodro/khedizel/product/quarterly.xlsx
+++ b/database/industries/khodro/khedizel/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\khodro\khedizel\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khedizel\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C6AFB-B28F-4ED3-BB71-A3A247846700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +342,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -353,7 +354,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -400,6 +401,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -435,6 +453,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,17 +621,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,7 +641,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +653,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +665,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -640,7 +675,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -652,7 +687,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -664,7 +699,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -674,7 +709,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -696,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -706,7 +741,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -730,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -754,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -778,7 +813,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
@@ -802,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -826,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -850,7 +885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -874,7 +909,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -898,7 +933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -922,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -946,7 +981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
@@ -970,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -994,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1018,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1042,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1066,7 +1101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1088,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1112,7 +1147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1136,7 +1171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1195,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1208,7 +1243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
@@ -1232,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
@@ -1256,7 +1291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1280,7 +1315,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1312,7 +1347,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1322,7 +1357,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1332,7 +1367,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
@@ -1354,7 +1389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1364,7 +1399,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -1412,7 +1447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
@@ -1436,7 +1471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>15</v>
       </c>
@@ -1460,7 +1495,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>17</v>
       </c>
@@ -1484,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +1543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>19</v>
       </c>
@@ -1532,7 +1567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +1591,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>21</v>
       </c>
@@ -1580,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>22</v>
       </c>
@@ -1604,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>22</v>
       </c>
@@ -1628,7 +1663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>23</v>
       </c>
@@ -1652,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>24</v>
       </c>
@@ -1700,7 +1735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>25</v>
       </c>
@@ -1724,7 +1759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>27</v>
       </c>
@@ -1746,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>28</v>
       </c>
@@ -1770,7 +1805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>29</v>
       </c>
@@ -1794,7 +1829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>30</v>
       </c>
@@ -1818,7 +1853,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>31</v>
       </c>
@@ -1842,7 +1877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>32</v>
       </c>
@@ -1866,7 +1901,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +1925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>40</v>
       </c>
@@ -1914,7 +1949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>33</v>
       </c>
@@ -1938,7 +1973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>34</v>
       </c>
@@ -1962,7 +1997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>35</v>
       </c>
@@ -1986,7 +2021,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>35</v>
       </c>
@@ -2008,7 +2043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>36</v>
       </c>
@@ -2030,7 +2065,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2040,7 +2075,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2050,7 +2085,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2060,7 +2095,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>41</v>
       </c>
@@ -2082,7 +2117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2092,7 +2127,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>10</v>
       </c>
@@ -2116,7 +2151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>13</v>
       </c>
@@ -2140,7 +2175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>38</v>
       </c>
@@ -2164,7 +2199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>15</v>
       </c>
@@ -2188,7 +2223,7 @@
         <v>7724659</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>17</v>
       </c>
@@ -2212,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>18</v>
       </c>
@@ -2236,7 +2271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>19</v>
       </c>
@@ -2260,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2319,7 @@
         <v>1498739</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
@@ -2308,7 +2343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -2332,7 +2367,7 @@
         <v>952826</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>23</v>
       </c>
@@ -2356,7 +2391,7 @@
         <v>727543</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>24</v>
       </c>
@@ -2380,7 +2415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>25</v>
       </c>
@@ -2404,7 +2439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
@@ -2428,7 +2463,7 @@
         <v>-237470</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>28</v>
       </c>
@@ -2452,7 +2487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>29</v>
       </c>
@@ -2476,7 +2511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>30</v>
       </c>
@@ -2500,7 +2535,7 @@
         <v>5883405</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -2524,7 +2559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>32</v>
       </c>
@@ -2548,7 +2583,7 @@
         <v>2215154</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>39</v>
       </c>
@@ -2572,7 +2607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>40</v>
       </c>
@@ -2596,7 +2631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>33</v>
       </c>
@@ -2620,7 +2655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>34</v>
       </c>
@@ -2644,7 +2679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>35</v>
       </c>
@@ -2668,7 +2703,7 @@
         <v>1244968</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>36</v>
       </c>
@@ -2690,7 +2725,7 @@
         <v>20009824</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2700,7 +2735,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2710,7 +2745,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2720,7 +2755,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>43</v>
       </c>
@@ -2742,7 +2777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2752,7 +2787,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>10</v>
       </c>
@@ -2776,7 +2811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>13</v>
       </c>
@@ -2800,7 +2835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>38</v>
       </c>
@@ -2824,7 +2859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +2883,7 @@
         <v>8563923503</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>17</v>
       </c>
@@ -2872,7 +2907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>18</v>
       </c>
@@ -2896,7 +2931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>19</v>
       </c>
@@ -2920,7 +2955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>20</v>
       </c>
@@ -2944,7 +2979,7 @@
         <v>9607301282</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>21</v>
       </c>
@@ -2968,7 +3003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>22</v>
       </c>
@@ -2992,7 +3027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>23</v>
       </c>
@@ -3016,7 +3051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>24</v>
       </c>
@@ -3040,7 +3075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>25</v>
       </c>
@@ -3064,7 +3099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>27</v>
       </c>
@@ -3088,7 +3123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>28</v>
       </c>
@@ -3112,7 +3147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>29</v>
       </c>
@@ -3136,7 +3171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>30</v>
       </c>
@@ -3160,7 +3195,7 @@
         <v>28982290640</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>31</v>
       </c>
@@ -3184,7 +3219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>32</v>
       </c>
@@ -3208,7 +3243,7 @@
         <v>14384116883</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>39</v>
       </c>
@@ -3232,7 +3267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>40</v>
       </c>
@@ -3256,7 +3291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>33</v>
       </c>
@@ -3280,7 +3315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>34</v>
       </c>
@@ -3304,7 +3339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>35</v>
       </c>
@@ -3328,7 +3363,7 @@
         <v>3830670769</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3338,7 +3373,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3348,7 +3383,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3358,7 +3393,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
         <v>47</v>
       </c>
@@ -3380,7 +3415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3390,7 +3425,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>10</v>
       </c>
@@ -3414,7 +3449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>13</v>
       </c>
@@ -3438,7 +3473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>38</v>
       </c>
@@ -3462,7 +3497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>15</v>
       </c>
@@ -3486,7 +3521,7 @@
         <v>-5333363</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>17</v>
       </c>
@@ -3510,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>18</v>
       </c>
@@ -3534,7 +3569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>19</v>
       </c>
@@ -3558,7 +3593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>20</v>
       </c>
@@ -3582,7 +3617,7 @@
         <v>-863388</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>21</v>
       </c>
@@ -3606,7 +3641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>22</v>
       </c>
@@ -3630,7 +3665,7 @@
         <v>-203741</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>23</v>
       </c>
@@ -3654,7 +3689,7 @@
         <v>-499148</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>24</v>
       </c>
@@ -3678,7 +3713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>25</v>
       </c>
@@ -3702,7 +3737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>27</v>
       </c>
@@ -3726,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>28</v>
       </c>
@@ -3750,7 +3785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>29</v>
       </c>
@@ -3774,7 +3809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>30</v>
       </c>
@@ -3798,7 +3833,7 @@
         <v>-3817987</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>31</v>
       </c>
@@ -3822,7 +3857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>32</v>
       </c>
@@ -3846,7 +3881,7 @@
         <v>-1454730</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>39</v>
       </c>
@@ -3870,7 +3905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>40</v>
       </c>
@@ -3894,7 +3929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>33</v>
       </c>
@@ -3918,7 +3953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>34</v>
       </c>
@@ -3942,7 +3977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>35</v>
       </c>
@@ -3966,7 +4001,7 @@
         <v>-534641</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="12" t="s">
         <v>36</v>
       </c>
@@ -3988,7 +4023,7 @@
         <v>-12706998</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3998,7 +4033,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -4008,7 +4043,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4018,7 +4053,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B160" s="7" t="s">
         <v>48</v>
       </c>
@@ -4040,7 +4075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -4050,7 +4085,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>10</v>
       </c>
@@ -4074,7 +4109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>13</v>
       </c>
@@ -4098,7 +4133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>38</v>
       </c>
@@ -4122,7 +4157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>15</v>
       </c>
@@ -4146,7 +4181,7 @@
         <v>2391296</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>17</v>
       </c>
@@ -4170,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>18</v>
       </c>
@@ -4194,7 +4229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>19</v>
       </c>
@@ -4218,7 +4253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>20</v>
       </c>
@@ -4242,7 +4277,7 @@
         <v>635351</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>21</v>
       </c>
@@ -4266,7 +4301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>22</v>
       </c>
@@ -4290,7 +4325,7 @@
         <v>749085</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>23</v>
       </c>
@@ -4314,7 +4349,7 @@
         <v>228395</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>24</v>
       </c>
@@ -4338,7 +4373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
         <v>25</v>
       </c>
@@ -4362,7 +4397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>27</v>
       </c>
@@ -4386,7 +4421,7 @@
         <v>-237470</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>28</v>
       </c>
@@ -4410,7 +4445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>29</v>
       </c>
@@ -4434,7 +4469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>30</v>
       </c>
@@ -4458,7 +4493,7 @@
         <v>2065418</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>31</v>
       </c>
@@ -4482,7 +4517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>32</v>
       </c>
@@ -4506,7 +4541,7 @@
         <v>760424</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>39</v>
       </c>
@@ -4530,7 +4565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>40</v>
       </c>
@@ -4554,7 +4589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>33</v>
       </c>
@@ -4578,7 +4613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>34</v>
       </c>
@@ -4602,7 +4637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>35</v>
       </c>
@@ -4626,7 +4661,7 @@
         <v>710327</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="12" t="s">
         <v>36</v>
       </c>

--- a/database/industries/khodro/khedizel/product/quarterly.xlsx
+++ b/database/industries/khodro/khedizel/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E22E219-A5BF-4539-A911-80B599912446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D24E4-4CC9-4FDA-803E-FB0B08AD041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر</t>
@@ -638,12 +638,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -658,7 +658,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -707,7 +707,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -756,7 +756,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -808,7 +808,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -831,11 +831,11 @@
       <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>17</v>
@@ -847,7 +847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -886,7 +886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
@@ -895,37 +895,37 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="F12" s="9">
-        <v>156</v>
+        <v>480</v>
       </c>
       <c r="G12" s="9">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="H12" s="9">
-        <v>343</v>
+        <v>506</v>
       </c>
       <c r="I12" s="9">
-        <v>506</v>
+        <v>592</v>
       </c>
       <c r="J12" s="9">
-        <v>592</v>
+        <v>363</v>
       </c>
       <c r="K12" s="9">
-        <v>363</v>
+        <v>624</v>
       </c>
       <c r="L12" s="9">
-        <v>624</v>
+        <v>780</v>
       </c>
       <c r="M12" s="9">
-        <v>780</v>
+        <v>743</v>
       </c>
       <c r="N12" s="9">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
@@ -937,22 +937,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G13" s="11">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
       </c>
       <c r="K13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
@@ -975,8 +975,8 @@
       <c r="E14" s="9">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>17</v>
@@ -1003,7 +1003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1011,12 +1011,12 @@
         <v>21</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="E15" s="11">
         <v>3</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1026,12 +1026,12 @@
       <c r="I15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="J15" s="11">
         <v>304</v>
       </c>
+      <c r="K15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1051,37 +1051,37 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F16" s="9">
+        <v>61</v>
+      </c>
+      <c r="G16" s="9">
         <v>12</v>
-      </c>
-      <c r="G16" s="9">
-        <v>61</v>
       </c>
       <c r="H16" s="9">
         <v>12</v>
       </c>
       <c r="I16" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="J16" s="9">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="K16" s="9">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="L16" s="9">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M16" s="9">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="N16" s="9">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1137,8 +1137,8 @@
       <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
+      <c r="H18" s="9">
+        <v>0</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
@@ -1146,11 +1146,11 @@
       <c r="J18" s="9">
         <v>0</v>
       </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>17</v>
+      <c r="K18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
       </c>
       <c r="M18" s="9">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
@@ -1185,11 +1185,11 @@
       <c r="J19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>17</v>
@@ -1198,7 +1198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1215,8 +1215,8 @@
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
+      <c r="H20" s="9">
+        <v>0</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
@@ -1224,11 +1224,11 @@
       <c r="J20" s="9">
         <v>0</v>
       </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>17</v>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
       </c>
       <c r="M20" s="9">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1263,11 +1263,11 @@
       <c r="J21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>17</v>
@@ -1276,7 +1276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1284,12 +1284,12 @@
         <v>21</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="9">
         <v>62</v>
       </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="9" t="s">
         <v>17</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1326,8 +1326,8 @@
       <c r="E23" s="11">
         <v>0</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
+      <c r="F23" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>17</v>
@@ -1354,7 +1354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1365,8 +1365,8 @@
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>17</v>
@@ -1393,7 +1393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1408,17 +1408,17 @@
       <c r="G25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>17</v>
+      <c r="K25" s="11">
+        <v>0</v>
       </c>
       <c r="L25" s="11">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1438,11 +1438,11 @@
         <v>21</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>17</v>
@@ -1469,7 +1469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1478,10 +1478,10 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>17</v>
@@ -1508,7 +1508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
@@ -1519,8 +1519,8 @@
       <c r="E28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>17</v>
+      <c r="F28" s="9">
+        <v>0</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="J28" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K28" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="L28" s="9">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="M28" s="9">
-        <v>241</v>
+        <v>453</v>
       </c>
       <c r="N28" s="9">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
@@ -1556,11 +1556,11 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>12</v>
-      </c>
-      <c r="F29" s="11">
         <v>22</v>
       </c>
+      <c r="F29" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G29" s="11" t="s">
         <v>17</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
@@ -1597,35 +1597,35 @@
       <c r="E30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>17</v>
+      <c r="F30" s="9">
+        <v>188</v>
       </c>
       <c r="G30" s="9">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="H30" s="9">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I30" s="9">
-        <v>69</v>
-      </c>
-      <c r="J30" s="9">
         <v>52</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>17</v>
+      <c r="J30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="9">
+        <v>117</v>
       </c>
       <c r="L30" s="9">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="M30" s="9">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="N30" s="9">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
@@ -1672,12 +1672,12 @@
         <v>21</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E32" s="9">
         <v>2</v>
       </c>
+      <c r="F32" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G32" s="9" t="s">
         <v>17</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>40</v>
       </c>
@@ -1720,66 +1720,66 @@
       <c r="G33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>17</v>
+      <c r="H33" s="11">
+        <v>368</v>
       </c>
       <c r="I33" s="11">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="J33" s="11">
-        <v>327</v>
+        <v>172</v>
       </c>
       <c r="K33" s="11">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L33" s="11">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="M33" s="11">
-        <v>287</v>
+        <v>618</v>
       </c>
       <c r="N33" s="11">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="F34" s="13">
-        <v>257</v>
+        <v>775</v>
       </c>
       <c r="G34" s="13">
-        <v>775</v>
+        <v>398</v>
       </c>
       <c r="H34" s="13">
-        <v>398</v>
+        <v>955</v>
       </c>
       <c r="I34" s="13">
-        <v>955</v>
+        <v>1051</v>
       </c>
       <c r="J34" s="13">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="K34" s="13">
-        <v>1043</v>
+        <v>1106</v>
       </c>
       <c r="L34" s="13">
-        <v>1106</v>
+        <v>1492</v>
       </c>
       <c r="M34" s="13">
-        <v>1492</v>
+        <v>2147</v>
       </c>
       <c r="N34" s="13">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1794,7 +1794,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1809,7 +1809,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1824,7 +1824,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>42</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1876,7 +1876,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>15</v>
       </c>
@@ -1899,11 +1899,11 @@
       <c r="I40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>17</v>
@@ -1915,7 +1915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
@@ -1935,11 +1935,11 @@
       <c r="H41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="11">
-        <v>0</v>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K41" s="11" t="s">
         <v>17</v>
@@ -1954,7 +1954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>43</v>
       </c>
@@ -1965,8 +1965,8 @@
       <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <v>0</v>
+      <c r="F42" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>17</v>
@@ -1993,7 +1993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>43</v>
       </c>
@@ -2004,14 +2004,14 @@
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>17</v>
+      <c r="F43" s="11">
+        <v>0</v>
       </c>
       <c r="G43" s="11">
         <v>0</v>
       </c>
-      <c r="H43" s="11">
-        <v>0</v>
+      <c r="H43" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>17</v>
@@ -2032,7 +2032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>20</v>
       </c>
@@ -2041,37 +2041,37 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>-10</v>
+        <v>-108</v>
       </c>
       <c r="F44" s="9">
-        <v>-108</v>
+        <v>511</v>
       </c>
       <c r="G44" s="9">
-        <v>511</v>
+        <v>153</v>
       </c>
       <c r="H44" s="9">
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="I44" s="9">
-        <v>403</v>
-      </c>
-      <c r="J44" s="9">
         <v>611</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>17</v>
+      <c r="J44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="9">
+        <v>451</v>
       </c>
       <c r="L44" s="9">
-        <v>451</v>
+        <v>902</v>
       </c>
       <c r="M44" s="9">
-        <v>902</v>
+        <v>592</v>
       </c>
       <c r="N44" s="9">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>22</v>
       </c>
@@ -2080,25 +2080,25 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>-15</v>
+      </c>
+      <c r="F45" s="11">
+        <v>42</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>5</v>
+      </c>
+      <c r="I45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="11">
-        <v>-15</v>
-      </c>
-      <c r="G45" s="11">
-        <v>42</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>5</v>
-      </c>
-      <c r="J45" s="11">
-        <v>1</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>17</v>
+      <c r="J45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
       </c>
       <c r="L45" s="11">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>23</v>
       </c>
@@ -2119,11 +2119,11 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>4</v>
-      </c>
-      <c r="F46" s="9">
         <v>1</v>
       </c>
+      <c r="F46" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G46" s="9" t="s">
         <v>17</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>24</v>
       </c>
@@ -2158,11 +2158,11 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>117</v>
-      </c>
-      <c r="F47" s="11">
         <v>23</v>
       </c>
+      <c r="F47" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G47" s="11" t="s">
         <v>17</v>
       </c>
@@ -2172,12 +2172,12 @@
       <c r="I47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="11">
+      <c r="J47" s="11">
         <v>324</v>
       </c>
+      <c r="K47" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L47" s="11" t="s">
         <v>17</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>25</v>
       </c>
@@ -2197,37 +2197,37 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F48" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G48" s="9">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H48" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9">
-        <v>22</v>
-      </c>
-      <c r="J48" s="9">
         <v>27</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>17</v>
+      <c r="J48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="9">
+        <v>69</v>
       </c>
       <c r="L48" s="9">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="M48" s="9">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="N48" s="9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>26</v>
       </c>
@@ -2235,12 +2235,12 @@
         <v>21</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="11">
+      <c r="E49" s="11">
         <v>275</v>
       </c>
+      <c r="F49" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G49" s="11" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>27</v>
       </c>
@@ -2274,29 +2274,29 @@
         <v>19</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0</v>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>17</v>
+      <c r="H50" s="9">
+        <v>0</v>
       </c>
       <c r="I50" s="9">
         <v>0</v>
       </c>
-      <c r="J50" s="9">
-        <v>0</v>
+      <c r="J50" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="9" t="s">
-        <v>17</v>
+      <c r="L50" s="9">
+        <v>0</v>
       </c>
       <c r="M50" s="9">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>27</v>
       </c>
@@ -2331,11 +2331,11 @@
       <c r="J51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" s="11">
-        <v>0</v>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="M51" s="11" t="s">
         <v>17</v>
@@ -2344,7 +2344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>28</v>
       </c>
@@ -2367,14 +2367,14 @@
       <c r="I52" s="9">
         <v>0</v>
       </c>
-      <c r="J52" s="9">
-        <v>0</v>
+      <c r="J52" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>17</v>
+      <c r="L52" s="9">
+        <v>0</v>
       </c>
       <c r="M52" s="9">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>28</v>
       </c>
@@ -2409,11 +2409,11 @@
       <c r="J53" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" s="11">
-        <v>0</v>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="M53" s="11" t="s">
         <v>17</v>
@@ -2422,7 +2422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>29</v>
       </c>
@@ -2431,11 +2431,11 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>154</v>
-      </c>
-      <c r="F54" s="9">
         <v>95</v>
       </c>
+      <c r="F54" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G54" s="9" t="s">
         <v>17</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>30</v>
       </c>
@@ -2472,8 +2472,8 @@
       <c r="E55" s="11">
         <v>0</v>
       </c>
-      <c r="F55" s="11">
-        <v>0</v>
+      <c r="F55" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>17</v>
@@ -2500,7 +2500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>32</v>
       </c>
@@ -2518,14 +2518,14 @@
       <c r="H56" s="9">
         <v>0</v>
       </c>
-      <c r="I56" s="9">
-        <v>0</v>
+      <c r="I56" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>17</v>
+      <c r="K56" s="9">
+        <v>0</v>
       </c>
       <c r="L56" s="9">
         <v>0</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>33</v>
       </c>
@@ -2546,11 +2546,11 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>30</v>
-      </c>
-      <c r="F57" s="11">
         <v>13</v>
       </c>
+      <c r="F57" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G57" s="11" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>34</v>
       </c>
@@ -2585,10 +2585,10 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>1</v>
-      </c>
-      <c r="F58" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>17</v>
@@ -2615,7 +2615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>35</v>
       </c>
@@ -2626,35 +2626,35 @@
       <c r="E59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>17</v>
+      <c r="F59" s="11">
+        <v>9</v>
       </c>
       <c r="G59" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H59" s="11">
         <v>0</v>
       </c>
       <c r="I59" s="11">
-        <v>0</v>
-      </c>
-      <c r="J59" s="11">
         <v>1</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>17</v>
+      <c r="J59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="11">
+        <v>86</v>
       </c>
       <c r="L59" s="11">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="M59" s="11">
-        <v>203</v>
+        <v>386</v>
       </c>
       <c r="N59" s="11">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>36</v>
       </c>
@@ -2665,8 +2665,8 @@
       <c r="E60" s="9">
         <v>11</v>
       </c>
-      <c r="F60" s="9">
-        <v>11</v>
+      <c r="F60" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>17</v>
@@ -2693,7 +2693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>37</v>
       </c>
@@ -2704,35 +2704,35 @@
       <c r="E61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>17</v>
+      <c r="F61" s="11">
+        <v>293</v>
       </c>
       <c r="G61" s="11">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="H61" s="11">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I61" s="11">
-        <v>99</v>
-      </c>
-      <c r="J61" s="11">
         <v>79</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>17</v>
+      <c r="J61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="11">
+        <v>45</v>
       </c>
       <c r="L61" s="11">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="M61" s="11">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="N61" s="11">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>44</v>
       </c>
@@ -2743,8 +2743,8 @@
       <c r="E62" s="9">
         <v>0</v>
       </c>
-      <c r="F62" s="9">
-        <v>0</v>
+      <c r="F62" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>17</v>
@@ -2771,7 +2771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>45</v>
       </c>
@@ -2779,8 +2779,8 @@
         <v>21</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11">
-        <v>0</v>
+      <c r="E63" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>17</v>
@@ -2810,7 +2810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>38</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>39</v>
       </c>
@@ -2857,11 +2857,11 @@
         <v>21</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="11">
-        <v>0</v>
+      <c r="E65" s="11">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>17</v>
@@ -2888,7 +2888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>40</v>
       </c>
@@ -2899,35 +2899,35 @@
       <c r="E66" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>17</v>
+      <c r="F66" s="9">
+        <v>538</v>
       </c>
       <c r="G66" s="9">
-        <v>538</v>
-      </c>
-      <c r="H66" s="9">
         <v>94</v>
       </c>
-      <c r="I66" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="9">
+      <c r="H66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="9">
         <v>320</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>17</v>
+      <c r="J66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="9">
+        <v>63</v>
       </c>
       <c r="L66" s="9">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="M66" s="9">
-        <v>325</v>
+        <v>586</v>
       </c>
       <c r="N66" s="9">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>40</v>
       </c>
@@ -2942,12 +2942,12 @@
       <c r="G67" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="11">
+      <c r="H67" s="11">
         <v>264</v>
       </c>
+      <c r="I67" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J67" s="11" t="s">
         <v>17</v>
       </c>
@@ -2964,44 +2964,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F68" s="13">
-        <v>320</v>
+        <v>1431</v>
       </c>
       <c r="G68" s="13">
-        <v>1431</v>
+        <v>259</v>
       </c>
       <c r="H68" s="13">
-        <v>259</v>
+        <v>793</v>
       </c>
       <c r="I68" s="13">
-        <v>793</v>
+        <v>1039</v>
       </c>
       <c r="J68" s="13">
-        <v>1039</v>
+        <v>324</v>
       </c>
       <c r="K68" s="13">
-        <v>324</v>
+        <v>714</v>
       </c>
       <c r="L68" s="13">
-        <v>714</v>
+        <v>1740</v>
       </c>
       <c r="M68" s="13">
-        <v>1740</v>
+        <v>1884</v>
       </c>
       <c r="N68" s="13">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3016,7 +3016,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3031,7 +3031,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3046,7 +3046,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>46</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3098,7 +3098,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>15</v>
       </c>
@@ -3121,12 +3121,12 @@
       <c r="I74" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J74" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" s="9">
+      <c r="J74" s="9">
         <v>-911972</v>
       </c>
+      <c r="K74" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L74" s="9" t="s">
         <v>17</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>18</v>
       </c>
@@ -3157,12 +3157,12 @@
       <c r="H75" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="11">
+      <c r="I75" s="11">
         <v>-498269</v>
       </c>
+      <c r="J75" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K75" s="11" t="s">
         <v>17</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>43</v>
       </c>
@@ -3193,8 +3193,8 @@
       <c r="G76" s="9">
         <v>0</v>
       </c>
-      <c r="H76" s="9">
-        <v>0</v>
+      <c r="H76" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>17</v>
@@ -3215,7 +3215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>20</v>
       </c>
@@ -3224,37 +3224,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>-10443</v>
+        <v>-131527</v>
       </c>
       <c r="F77" s="11">
-        <v>-131527</v>
+        <v>2231326</v>
       </c>
       <c r="G77" s="11">
-        <v>2231326</v>
+        <v>905120</v>
       </c>
       <c r="H77" s="11">
-        <v>905120</v>
+        <v>2546415</v>
       </c>
       <c r="I77" s="11">
-        <v>2546415</v>
-      </c>
-      <c r="J77" s="11">
         <v>4224761</v>
       </c>
-      <c r="K77" s="11" t="s">
-        <v>17</v>
+      <c r="J77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="11">
+        <v>3746342</v>
       </c>
       <c r="L77" s="11">
-        <v>3746342</v>
+        <v>7724659</v>
       </c>
       <c r="M77" s="11">
-        <v>7724659</v>
+        <v>5155477</v>
       </c>
       <c r="N77" s="11">
-        <v>5155477</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9218789</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>22</v>
       </c>
@@ -3263,25 +3263,25 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>2239</v>
+        <v>-63108</v>
       </c>
       <c r="F78" s="9">
-        <v>-63108</v>
+        <v>189927</v>
       </c>
       <c r="G78" s="9">
-        <v>189927</v>
+        <v>0</v>
       </c>
       <c r="H78" s="9">
-        <v>0</v>
+        <v>23485</v>
       </c>
       <c r="I78" s="9">
-        <v>23485</v>
-      </c>
-      <c r="J78" s="9">
         <v>4697</v>
       </c>
-      <c r="K78" s="9" t="s">
-        <v>17</v>
+      <c r="J78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="9">
+        <v>0</v>
       </c>
       <c r="L78" s="9">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>23</v>
       </c>
@@ -3302,11 +3302,11 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>30138</v>
-      </c>
-      <c r="F79" s="11">
         <v>7535</v>
       </c>
+      <c r="F79" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G79" s="11" t="s">
         <v>17</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>24</v>
       </c>
@@ -3341,11 +3341,11 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>755482</v>
-      </c>
-      <c r="F80" s="9">
         <v>152428</v>
       </c>
+      <c r="F80" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G80" s="9" t="s">
         <v>17</v>
       </c>
@@ -3355,12 +3355,12 @@
       <c r="I80" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="9">
+      <c r="J80" s="9">
         <v>3872835</v>
       </c>
+      <c r="K80" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L80" s="9" t="s">
         <v>17</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>25</v>
       </c>
@@ -3380,37 +3380,37 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>83952</v>
+        <v>188836</v>
       </c>
       <c r="F81" s="11">
-        <v>188836</v>
+        <v>182807</v>
       </c>
       <c r="G81" s="11">
-        <v>182807</v>
+        <v>64416</v>
       </c>
       <c r="H81" s="11">
-        <v>64416</v>
+        <v>121380</v>
       </c>
       <c r="I81" s="11">
-        <v>121380</v>
-      </c>
-      <c r="J81" s="11">
         <v>169310</v>
       </c>
-      <c r="K81" s="11" t="s">
-        <v>17</v>
+      <c r="J81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="11">
+        <v>628638</v>
       </c>
       <c r="L81" s="11">
-        <v>628638</v>
+        <v>1498739</v>
       </c>
       <c r="M81" s="11">
-        <v>1498739</v>
+        <v>2055143</v>
       </c>
       <c r="N81" s="11">
-        <v>2055143</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>748729</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>26</v>
       </c>
@@ -3418,12 +3418,12 @@
         <v>47</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="9">
+      <c r="E82" s="9">
         <v>460879</v>
       </c>
+      <c r="F82" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G82" s="9" t="s">
         <v>17</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>27</v>
       </c>
@@ -3457,38 +3457,38 @@
         <v>47</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="11">
+      <c r="E83" s="11">
         <v>-818422</v>
       </c>
+      <c r="F83" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G83" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>17</v>
+      <c r="H83" s="11">
+        <v>442616</v>
       </c>
       <c r="I83" s="11">
-        <v>442616</v>
-      </c>
-      <c r="J83" s="11">
         <v>681813</v>
       </c>
-      <c r="K83" s="11" t="s">
-        <v>17</v>
+      <c r="J83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="11">
+        <v>816986</v>
       </c>
       <c r="L83" s="11">
-        <v>816986</v>
+        <v>952826</v>
       </c>
       <c r="M83" s="11">
-        <v>952826</v>
+        <v>2094976</v>
       </c>
       <c r="N83" s="11">
-        <v>2094976</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1685564</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>28</v>
       </c>
@@ -3497,37 +3497,37 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
-        <v>699675</v>
+        <v>1444866</v>
       </c>
       <c r="F84" s="9">
-        <v>1444866</v>
+        <v>861048</v>
       </c>
       <c r="G84" s="9">
-        <v>861048</v>
+        <v>344357</v>
       </c>
       <c r="H84" s="9">
-        <v>344357</v>
+        <v>-344357</v>
       </c>
       <c r="I84" s="9">
-        <v>-344357</v>
-      </c>
-      <c r="J84" s="9">
         <v>8535</v>
       </c>
-      <c r="K84" s="9" t="s">
-        <v>17</v>
+      <c r="J84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="9">
+        <v>359435</v>
       </c>
       <c r="L84" s="9">
-        <v>359435</v>
+        <v>727543</v>
       </c>
       <c r="M84" s="9">
-        <v>727543</v>
+        <v>887996</v>
       </c>
       <c r="N84" s="9">
-        <v>887996</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1062932</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>29</v>
       </c>
@@ -3536,11 +3536,11 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>493009</v>
-      </c>
-      <c r="F85" s="11">
         <v>480927</v>
       </c>
+      <c r="F85" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G85" s="11" t="s">
         <v>17</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>30</v>
       </c>
@@ -3577,8 +3577,8 @@
       <c r="E86" s="9">
         <v>0</v>
       </c>
-      <c r="F86" s="9">
-        <v>0</v>
+      <c r="F86" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>17</v>
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>32</v>
       </c>
@@ -3625,26 +3625,26 @@
       <c r="H87" s="11">
         <v>0</v>
       </c>
-      <c r="I87" s="11">
-        <v>0</v>
+      <c r="I87" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K87" s="11" t="s">
-        <v>17</v>
+      <c r="K87" s="11">
+        <v>-112466</v>
       </c>
       <c r="L87" s="11">
-        <v>-112466</v>
+        <v>-237470</v>
       </c>
       <c r="M87" s="11">
-        <v>-237470</v>
+        <v>-198057</v>
       </c>
       <c r="N87" s="11">
-        <v>-198057</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-332502</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>33</v>
       </c>
@@ -3653,11 +3653,11 @@
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
-        <v>130498</v>
-      </c>
-      <c r="F88" s="9">
         <v>61854</v>
       </c>
+      <c r="F88" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G88" s="9" t="s">
         <v>17</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>34</v>
       </c>
@@ -3692,10 +3692,10 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>8497</v>
-      </c>
-      <c r="F89" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>17</v>
@@ -3722,7 +3722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>35</v>
       </c>
@@ -3733,35 +3733,35 @@
       <c r="E90" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="9" t="s">
-        <v>17</v>
+      <c r="F90" s="9">
+        <v>75831</v>
       </c>
       <c r="G90" s="9">
-        <v>75831</v>
+        <v>0</v>
       </c>
       <c r="H90" s="9">
         <v>0</v>
       </c>
       <c r="I90" s="9">
-        <v>0</v>
-      </c>
-      <c r="J90" s="9">
         <v>9652</v>
       </c>
-      <c r="K90" s="9" t="s">
-        <v>17</v>
+      <c r="J90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="9">
+        <v>2322293</v>
       </c>
       <c r="L90" s="9">
-        <v>2322293</v>
+        <v>5883405</v>
       </c>
       <c r="M90" s="9">
-        <v>5883405</v>
+        <v>11858846</v>
       </c>
       <c r="N90" s="9">
-        <v>11858846</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20716419</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>36</v>
       </c>
@@ -3770,11 +3770,11 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>49415</v>
-      </c>
-      <c r="F91" s="11">
         <v>70582</v>
       </c>
+      <c r="F91" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G91" s="11" t="s">
         <v>17</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>37</v>
       </c>
@@ -3811,35 +3811,35 @@
       <c r="E92" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="9" t="s">
-        <v>17</v>
+      <c r="F92" s="9">
+        <v>1745070</v>
       </c>
       <c r="G92" s="9">
-        <v>1745070</v>
+        <v>4758</v>
       </c>
       <c r="H92" s="9">
-        <v>4758</v>
+        <v>1074324</v>
       </c>
       <c r="I92" s="9">
-        <v>1074324</v>
-      </c>
-      <c r="J92" s="9">
         <v>925345</v>
       </c>
-      <c r="K92" s="9" t="s">
-        <v>17</v>
+      <c r="J92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="9">
+        <v>585216</v>
       </c>
       <c r="L92" s="9">
-        <v>585216</v>
+        <v>2215154</v>
       </c>
       <c r="M92" s="9">
-        <v>2215154</v>
+        <v>1238062</v>
       </c>
       <c r="N92" s="9">
-        <v>1238062</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3170502</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>44</v>
       </c>
@@ -3850,8 +3850,8 @@
       <c r="E93" s="11">
         <v>0</v>
       </c>
-      <c r="F93" s="11">
-        <v>0</v>
+      <c r="F93" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>17</v>
@@ -3878,7 +3878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -3886,8 +3886,8 @@
         <v>47</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9">
-        <v>0</v>
+      <c r="E94" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>17</v>
@@ -3917,7 +3917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>38</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>39</v>
       </c>
@@ -3964,11 +3964,11 @@
         <v>47</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="9">
-        <v>0</v>
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>17</v>
@@ -3995,7 +3995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>40</v>
       </c>
@@ -4006,72 +4006,72 @@
       <c r="E97" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>17</v>
+      <c r="F97" s="11">
+        <v>1285600</v>
       </c>
       <c r="G97" s="11">
-        <v>1285600</v>
+        <v>386294</v>
       </c>
       <c r="H97" s="11">
-        <v>386294</v>
+        <v>1571776</v>
       </c>
       <c r="I97" s="11">
-        <v>1571776</v>
-      </c>
-      <c r="J97" s="11">
         <v>2296419</v>
       </c>
-      <c r="K97" s="11" t="s">
-        <v>17</v>
+      <c r="J97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="11">
+        <v>465621</v>
       </c>
       <c r="L97" s="11">
-        <v>465621</v>
+        <v>1244968</v>
       </c>
       <c r="M97" s="11">
-        <v>1244968</v>
+        <v>1852218</v>
       </c>
       <c r="N97" s="11">
-        <v>1852218</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1624197</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>2242462</v>
+        <v>1854850</v>
       </c>
       <c r="F98" s="13">
-        <v>1854850</v>
+        <v>6571609</v>
       </c>
       <c r="G98" s="13">
-        <v>6571609</v>
+        <v>1704945</v>
       </c>
       <c r="H98" s="13">
-        <v>1704945</v>
+        <v>5435639</v>
       </c>
       <c r="I98" s="13">
-        <v>5435639</v>
+        <v>7822263</v>
       </c>
       <c r="J98" s="13">
-        <v>7822263</v>
+        <v>2960863</v>
       </c>
       <c r="K98" s="13">
-        <v>2960863</v>
+        <v>8812065</v>
       </c>
       <c r="L98" s="13">
-        <v>8812065</v>
+        <v>20009824</v>
       </c>
       <c r="M98" s="13">
-        <v>20009824</v>
+        <v>24944661</v>
       </c>
       <c r="N98" s="13">
-        <v>24944661</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37894630</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4086,7 +4086,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4101,7 +4101,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4116,7 +4116,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>48</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4168,7 +4168,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>15</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>18</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>43</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>20</v>
       </c>
@@ -4294,37 +4294,37 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>3587388060</v>
+        <v>7858304348</v>
       </c>
       <c r="F107" s="11">
-        <v>7858304348</v>
+        <v>4366587084</v>
       </c>
       <c r="G107" s="11">
-        <v>4366587084</v>
+        <v>5915816993</v>
       </c>
       <c r="H107" s="11">
-        <v>5915816993</v>
+        <v>6318647643</v>
       </c>
       <c r="I107" s="11">
-        <v>6318647643</v>
+        <v>7038031097</v>
       </c>
       <c r="J107" s="11">
-        <v>7038031097</v>
+        <v>7219460916</v>
       </c>
       <c r="K107" s="11">
-        <v>7219460916</v>
+        <v>8306745011</v>
       </c>
       <c r="L107" s="11">
-        <v>8306745011</v>
+        <v>8563923503</v>
       </c>
       <c r="M107" s="11">
-        <v>8563923503</v>
+        <v>8708576014</v>
       </c>
       <c r="N107" s="11">
-        <v>8708576014</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9828133262</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>22</v>
       </c>
@@ -4332,17 +4332,17 @@
         <v>51</v>
       </c>
       <c r="D108" s="9"/>
-      <c r="E108" s="9">
-        <v>3186400000</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" s="9">
+      <c r="E108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="9">
         <v>4522071429</v>
       </c>
-      <c r="H108" s="9" t="s">
-        <v>17</v>
+      <c r="G108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="9">
+        <v>4697000000</v>
       </c>
       <c r="I108" s="9">
         <v>4697000000</v>
@@ -4350,8 +4350,8 @@
       <c r="J108" s="9">
         <v>4697000000</v>
       </c>
-      <c r="K108" s="9">
-        <v>4697000000</v>
+      <c r="K108" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>17</v>
@@ -4363,7 +4363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>23</v>
       </c>
@@ -4372,11 +4372,11 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>7534500000</v>
-      </c>
-      <c r="F109" s="11">
         <v>7535000000</v>
       </c>
+      <c r="F109" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G109" s="11" t="s">
         <v>17</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>24</v>
       </c>
@@ -4411,11 +4411,11 @@
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
-        <v>6457111111</v>
-      </c>
-      <c r="F110" s="9">
         <v>6627304348</v>
       </c>
+      <c r="F110" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G110" s="9" t="s">
         <v>17</v>
       </c>
@@ -4425,12 +4425,12 @@
       <c r="I110" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J110" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110" s="9">
+      <c r="J110" s="9">
         <v>11953194444</v>
       </c>
+      <c r="K110" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L110" s="9" t="s">
         <v>17</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>25</v>
       </c>
@@ -4450,37 +4450,37 @@
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>4938352941</v>
+        <v>7553440000</v>
       </c>
       <c r="F111" s="11">
-        <v>7553440000</v>
+        <v>4810710526</v>
       </c>
       <c r="G111" s="11">
-        <v>4810710526</v>
+        <v>5856000000</v>
       </c>
       <c r="H111" s="11">
-        <v>5856000000</v>
+        <v>5517272727</v>
       </c>
       <c r="I111" s="11">
-        <v>5517272727</v>
+        <v>6546740741</v>
       </c>
       <c r="J111" s="11">
-        <v>6546740741</v>
+        <v>8412797468</v>
       </c>
       <c r="K111" s="11">
-        <v>8412797468</v>
+        <v>9110695652</v>
       </c>
       <c r="L111" s="11">
-        <v>9110695652</v>
+        <v>9607301282</v>
       </c>
       <c r="M111" s="11">
-        <v>9607301282</v>
+        <v>8782662393</v>
       </c>
       <c r="N111" s="11">
-        <v>8782662393</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8808576471</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>26</v>
       </c>
@@ -4488,12 +4488,12 @@
         <v>51</v>
       </c>
       <c r="D112" s="9"/>
-      <c r="E112" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F112" s="9">
+      <c r="E112" s="9">
         <v>1675923636</v>
       </c>
+      <c r="F112" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G112" s="9" t="s">
         <v>17</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>27</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>28</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>29</v>
       </c>
@@ -4606,11 +4606,11 @@
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>3201357143</v>
-      </c>
-      <c r="F115" s="11">
         <v>5062389474</v>
       </c>
+      <c r="F115" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G115" s="11" t="s">
         <v>17</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>30</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>32</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>33</v>
       </c>
@@ -4723,11 +4723,11 @@
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9">
-        <v>4349933333</v>
-      </c>
-      <c r="F118" s="9">
         <v>4758000000</v>
       </c>
+      <c r="F118" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G118" s="9" t="s">
         <v>17</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>34</v>
       </c>
@@ -4761,8 +4761,8 @@
         <v>51</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11">
-        <v>8497000000</v>
+      <c r="E119" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>17</v>
@@ -4792,7 +4792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>35</v>
       </c>
@@ -4803,35 +4803,35 @@
       <c r="E120" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F120" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" s="9">
+      <c r="F120" s="9">
         <v>8425666667</v>
       </c>
+      <c r="G120" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H120" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I120" s="9" t="s">
-        <v>17</v>
+      <c r="I120" s="9">
+        <v>9652000000</v>
       </c>
       <c r="J120" s="9">
-        <v>9652000000</v>
+        <v>25195392857</v>
       </c>
       <c r="K120" s="9">
-        <v>25195392857</v>
+        <v>27003406977</v>
       </c>
       <c r="L120" s="9">
-        <v>27003406977</v>
+        <v>28982290640</v>
       </c>
       <c r="M120" s="9">
-        <v>28982290640</v>
+        <v>30722398964</v>
       </c>
       <c r="N120" s="9">
-        <v>30722398964</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34355587065</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>36</v>
       </c>
@@ -4840,11 +4840,11 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>4492272727</v>
-      </c>
-      <c r="F121" s="11">
         <v>6416545455</v>
       </c>
+      <c r="F121" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G121" s="11" t="s">
         <v>17</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>37</v>
       </c>
@@ -4881,35 +4881,35 @@
       <c r="E122" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F122" s="9" t="s">
-        <v>17</v>
+      <c r="F122" s="9">
+        <v>5955870307</v>
       </c>
       <c r="G122" s="9">
-        <v>5955870307</v>
+        <v>4758000000</v>
       </c>
       <c r="H122" s="9">
-        <v>4758000000</v>
+        <v>10851757576</v>
       </c>
       <c r="I122" s="9">
-        <v>10851757576</v>
-      </c>
-      <c r="J122" s="9">
         <v>12763683544</v>
       </c>
-      <c r="K122" s="9" t="s">
-        <v>17</v>
+      <c r="J122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="9">
+        <v>13004800000</v>
       </c>
       <c r="L122" s="9">
-        <v>13004800000</v>
+        <v>14384116883</v>
       </c>
       <c r="M122" s="9">
-        <v>14384116883</v>
+        <v>14396069767</v>
       </c>
       <c r="N122" s="9">
-        <v>14396069767</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14678250000</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>44</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>45</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>38</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>39</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>40</v>
       </c>
@@ -5076,35 +5076,35 @@
       <c r="E127" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F127" s="11" t="s">
-        <v>17</v>
+      <c r="F127" s="11">
+        <v>2389591078</v>
       </c>
       <c r="G127" s="11">
-        <v>2389591078</v>
+        <v>4109510638</v>
       </c>
       <c r="H127" s="11">
-        <v>4109510638</v>
+        <v>5953696970</v>
       </c>
       <c r="I127" s="11">
-        <v>5953696970</v>
+        <v>7230700000</v>
       </c>
       <c r="J127" s="11">
-        <v>7230700000</v>
+        <v>8376170588</v>
       </c>
       <c r="K127" s="11">
-        <v>8376170588</v>
+        <v>7390809524</v>
       </c>
       <c r="L127" s="11">
-        <v>7390809524</v>
+        <v>3830670769</v>
       </c>
       <c r="M127" s="11">
-        <v>3830670769</v>
+        <v>3160781570</v>
       </c>
       <c r="N127" s="11">
-        <v>3160781570</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2522045031</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -5119,7 +5119,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -5134,7 +5134,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -5149,7 +5149,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>53</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5201,7 +5201,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>15</v>
       </c>
@@ -5224,11 +5224,11 @@
       <c r="I133" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J133" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K133" s="9">
-        <v>0</v>
+      <c r="J133" s="9">
+        <v>0</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L133" s="9" t="s">
         <v>17</v>
@@ -5240,7 +5240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>18</v>
       </c>
@@ -5260,11 +5260,11 @@
       <c r="H134" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I134" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J134" s="11">
-        <v>0</v>
+      <c r="I134" s="11">
+        <v>0</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K134" s="11" t="s">
         <v>17</v>
@@ -5279,7 +5279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>43</v>
       </c>
@@ -5296,8 +5296,8 @@
       <c r="G135" s="9">
         <v>0</v>
       </c>
-      <c r="H135" s="9">
-        <v>0</v>
+      <c r="H135" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>17</v>
@@ -5318,7 +5318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>20</v>
       </c>
@@ -5327,37 +5327,37 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>-58076</v>
+        <v>-77242</v>
       </c>
       <c r="F136" s="11">
-        <v>-77242</v>
+        <v>-1067194</v>
       </c>
       <c r="G136" s="11">
-        <v>-1067194</v>
+        <v>-572381</v>
       </c>
       <c r="H136" s="11">
-        <v>-572381</v>
+        <v>-1588606</v>
       </c>
       <c r="I136" s="11">
-        <v>-1588606</v>
+        <v>-2535428</v>
       </c>
       <c r="J136" s="11">
-        <v>-2535428</v>
+        <v>-3167808</v>
       </c>
       <c r="K136" s="11">
-        <v>-3167808</v>
+        <v>-2212918</v>
       </c>
       <c r="L136" s="11">
-        <v>-2212918</v>
+        <v>-5333363</v>
       </c>
       <c r="M136" s="11">
-        <v>-5333363</v>
+        <v>-4109853</v>
       </c>
       <c r="N136" s="11">
-        <v>-4109853</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4966400</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>22</v>
       </c>
@@ -5366,25 +5366,25 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>-4329</v>
+        <v>0</v>
       </c>
       <c r="F137" s="9">
-        <v>0</v>
+        <v>-47004</v>
       </c>
       <c r="G137" s="9">
-        <v>-47004</v>
+        <v>0</v>
       </c>
       <c r="H137" s="9">
-        <v>0</v>
+        <v>-5596</v>
       </c>
       <c r="I137" s="9">
-        <v>-5596</v>
+        <v>-1185</v>
       </c>
       <c r="J137" s="9">
-        <v>-1185</v>
+        <v>-9401</v>
       </c>
       <c r="K137" s="9">
-        <v>-9401</v>
+        <v>0</v>
       </c>
       <c r="L137" s="9">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>23</v>
       </c>
@@ -5405,11 +5405,11 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>-8358</v>
-      </c>
-      <c r="F138" s="11">
         <v>-2086</v>
       </c>
+      <c r="F138" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G138" s="11" t="s">
         <v>17</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>24</v>
       </c>
@@ -5444,11 +5444,11 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>-331971</v>
-      </c>
-      <c r="F139" s="9">
         <v>-180895</v>
       </c>
+      <c r="F139" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G139" s="9" t="s">
         <v>17</v>
       </c>
@@ -5458,12 +5458,12 @@
       <c r="I139" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J139" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K139" s="9">
+      <c r="J139" s="9">
         <v>-2117596</v>
       </c>
+      <c r="K139" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L139" s="9" t="s">
         <v>17</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>25</v>
       </c>
@@ -5483,37 +5483,37 @@
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11">
-        <v>-12687</v>
+        <v>-42481</v>
       </c>
       <c r="F140" s="11">
-        <v>-42481</v>
+        <v>-54703</v>
       </c>
       <c r="G140" s="11">
-        <v>-54703</v>
+        <v>-15440</v>
       </c>
       <c r="H140" s="11">
-        <v>-15440</v>
+        <v>-31327</v>
       </c>
       <c r="I140" s="11">
-        <v>-31327</v>
+        <v>-55131</v>
       </c>
       <c r="J140" s="11">
-        <v>-55131</v>
+        <v>-796844</v>
       </c>
       <c r="K140" s="11">
-        <v>-796844</v>
+        <v>-401059</v>
       </c>
       <c r="L140" s="11">
-        <v>-401059</v>
+        <v>-863388</v>
       </c>
       <c r="M140" s="11">
-        <v>-863388</v>
+        <v>-1267413</v>
       </c>
       <c r="N140" s="11">
-        <v>-1267413</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-308746</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>26</v>
       </c>
@@ -5521,12 +5521,12 @@
         <v>47</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F141" s="9">
+      <c r="E141" s="9">
         <v>-153626</v>
       </c>
+      <c r="F141" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G141" s="9" t="s">
         <v>17</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>27</v>
       </c>
@@ -5560,38 +5560,38 @@
         <v>47</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" s="11">
-        <v>0</v>
+      <c r="E142" s="11">
+        <v>0</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H142" s="11" t="s">
-        <v>17</v>
+      <c r="H142" s="11">
+        <v>-214667</v>
       </c>
       <c r="I142" s="11">
-        <v>-214667</v>
+        <v>-225958</v>
       </c>
       <c r="J142" s="11">
-        <v>-225958</v>
+        <v>-81010</v>
       </c>
       <c r="K142" s="11">
-        <v>-81010</v>
+        <v>-239541</v>
       </c>
       <c r="L142" s="11">
-        <v>-239541</v>
+        <v>-203741</v>
       </c>
       <c r="M142" s="11">
-        <v>-203741</v>
+        <v>-492498</v>
       </c>
       <c r="N142" s="11">
-        <v>-492498</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-284651</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>28</v>
       </c>
@@ -5600,37 +5600,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>-90804</v>
+        <v>-9226</v>
       </c>
       <c r="F143" s="9">
-        <v>-9226</v>
+        <v>-52792</v>
       </c>
       <c r="G143" s="9">
-        <v>-52792</v>
+        <v>-91185</v>
       </c>
       <c r="H143" s="9">
-        <v>-91185</v>
+        <v>91185</v>
       </c>
       <c r="I143" s="9">
-        <v>91185</v>
+        <v>-4773</v>
       </c>
       <c r="J143" s="9">
-        <v>-4773</v>
+        <v>-99381</v>
       </c>
       <c r="K143" s="9">
-        <v>-99381</v>
+        <v>-152612</v>
       </c>
       <c r="L143" s="9">
-        <v>-152612</v>
+        <v>-499148</v>
       </c>
       <c r="M143" s="9">
-        <v>-499148</v>
+        <v>-1100996</v>
       </c>
       <c r="N143" s="9">
-        <v>-1100996</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-103066</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>29</v>
       </c>
@@ -5639,11 +5639,11 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>-214228</v>
-      </c>
-      <c r="F144" s="11">
         <v>-591939</v>
       </c>
+      <c r="F144" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G144" s="11" t="s">
         <v>17</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>30</v>
       </c>
@@ -5678,11 +5678,11 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F145" s="9">
         <v>1</v>
       </c>
+      <c r="F145" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G145" s="9" t="s">
         <v>17</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>32</v>
       </c>
@@ -5728,14 +5728,14 @@
       <c r="H146" s="11">
         <v>0</v>
       </c>
-      <c r="I146" s="11">
-        <v>0</v>
+      <c r="I146" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J146" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K146" s="11" t="s">
-        <v>17</v>
+      <c r="K146" s="11">
+        <v>0</v>
       </c>
       <c r="L146" s="11">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>33</v>
       </c>
@@ -5756,11 +5756,11 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>-99660</v>
-      </c>
-      <c r="F147" s="9">
         <v>-59720</v>
       </c>
+      <c r="F147" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G147" s="9" t="s">
         <v>17</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>34</v>
       </c>
@@ -5795,11 +5795,11 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>-2296</v>
-      </c>
-      <c r="F148" s="11">
         <v>-369</v>
       </c>
+      <c r="F148" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G148" s="11" t="s">
         <v>17</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>35</v>
       </c>
@@ -5836,35 +5836,35 @@
       <c r="E149" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F149" s="9" t="s">
-        <v>17</v>
+      <c r="F149" s="9">
+        <v>-20618</v>
       </c>
       <c r="G149" s="9">
-        <v>-20618</v>
+        <v>0</v>
       </c>
       <c r="H149" s="9">
         <v>0</v>
       </c>
       <c r="I149" s="9">
-        <v>0</v>
+        <v>-2089</v>
       </c>
       <c r="J149" s="9">
-        <v>-2089</v>
+        <v>-443143</v>
       </c>
       <c r="K149" s="9">
-        <v>-443143</v>
+        <v>-1651824</v>
       </c>
       <c r="L149" s="9">
-        <v>-1651824</v>
+        <v>-3817987</v>
       </c>
       <c r="M149" s="9">
-        <v>-3817987</v>
+        <v>-7962286</v>
       </c>
       <c r="N149" s="9">
-        <v>-7962286</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-12032790</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>36</v>
       </c>
@@ -5873,11 +5873,11 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>-8118</v>
-      </c>
-      <c r="F150" s="11">
         <v>-14854</v>
       </c>
+      <c r="F150" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G150" s="11" t="s">
         <v>17</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>37</v>
       </c>
@@ -5914,35 +5914,35 @@
       <c r="E151" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F151" s="9" t="s">
-        <v>17</v>
+      <c r="F151" s="9">
+        <v>-1218779</v>
       </c>
       <c r="G151" s="9">
-        <v>-1218779</v>
+        <v>-3864</v>
       </c>
       <c r="H151" s="9">
-        <v>-3864</v>
+        <v>-551474</v>
       </c>
       <c r="I151" s="9">
-        <v>-551474</v>
-      </c>
-      <c r="J151" s="9">
         <v>-519460</v>
       </c>
-      <c r="K151" s="9" t="s">
-        <v>17</v>
+      <c r="J151" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="9">
+        <v>-495138</v>
       </c>
       <c r="L151" s="9">
-        <v>-495138</v>
+        <v>-1454730</v>
       </c>
       <c r="M151" s="9">
-        <v>-1454730</v>
+        <v>-1120365</v>
       </c>
       <c r="N151" s="9">
-        <v>-1120365</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2078803</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>44</v>
       </c>
@@ -5953,8 +5953,8 @@
       <c r="E152" s="11">
         <v>0</v>
       </c>
-      <c r="F152" s="11">
-        <v>0</v>
+      <c r="F152" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>17</v>
@@ -5981,7 +5981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>45</v>
       </c>
@@ -5989,8 +5989,8 @@
         <v>47</v>
       </c>
       <c r="D153" s="9"/>
-      <c r="E153" s="9">
-        <v>0</v>
+      <c r="E153" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>17</v>
@@ -6020,7 +6020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>38</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>39</v>
       </c>
@@ -6067,11 +6067,11 @@
         <v>47</v>
       </c>
       <c r="D155" s="9"/>
-      <c r="E155" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" s="9">
-        <v>0</v>
+      <c r="E155" s="9">
+        <v>0</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G155" s="9" t="s">
         <v>17</v>
@@ -6098,7 +6098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>40</v>
       </c>
@@ -6109,72 +6109,72 @@
       <c r="E156" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F156" s="11" t="s">
-        <v>17</v>
+      <c r="F156" s="11">
+        <v>-429255</v>
       </c>
       <c r="G156" s="11">
-        <v>-429255</v>
+        <v>-84546</v>
       </c>
       <c r="H156" s="11">
-        <v>-84546</v>
+        <v>-509616</v>
       </c>
       <c r="I156" s="11">
-        <v>-509616</v>
+        <v>-374300</v>
       </c>
       <c r="J156" s="11">
-        <v>-374300</v>
+        <v>-98609</v>
       </c>
       <c r="K156" s="11">
-        <v>-98609</v>
+        <v>-145811</v>
       </c>
       <c r="L156" s="11">
-        <v>-145811</v>
+        <v>-534641</v>
       </c>
       <c r="M156" s="11">
-        <v>-534641</v>
+        <v>-678687</v>
       </c>
       <c r="N156" s="11">
-        <v>-678687</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-784547</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13">
-        <v>-830528</v>
+        <v>-1132437</v>
       </c>
       <c r="F157" s="13">
-        <v>-1132437</v>
+        <v>-2890345</v>
       </c>
       <c r="G157" s="13">
-        <v>-2890345</v>
+        <v>-767416</v>
       </c>
       <c r="H157" s="13">
-        <v>-767416</v>
+        <v>-2810101</v>
       </c>
       <c r="I157" s="13">
-        <v>-2810101</v>
+        <v>-3718324</v>
       </c>
       <c r="J157" s="13">
-        <v>-3718324</v>
+        <v>-6813792</v>
       </c>
       <c r="K157" s="13">
-        <v>-6813792</v>
+        <v>-5298903</v>
       </c>
       <c r="L157" s="13">
-        <v>-5298903</v>
+        <v>-12706998</v>
       </c>
       <c r="M157" s="13">
-        <v>-12706998</v>
+        <v>-16732098</v>
       </c>
       <c r="N157" s="13">
-        <v>-16732098</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-20559003</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -6189,7 +6189,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -6204,7 +6204,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -6219,7 +6219,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
         <v>54</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -6271,7 +6271,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>15</v>
       </c>
@@ -6294,12 +6294,12 @@
       <c r="I163" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J163" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K163" s="9">
+      <c r="J163" s="9">
         <v>-911972</v>
       </c>
+      <c r="K163" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L163" s="9" t="s">
         <v>17</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>18</v>
       </c>
@@ -6330,12 +6330,12 @@
       <c r="H164" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I164" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J164" s="11">
+      <c r="I164" s="11">
         <v>-498269</v>
       </c>
+      <c r="J164" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K164" s="11" t="s">
         <v>17</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>43</v>
       </c>
@@ -6366,8 +6366,8 @@
       <c r="G165" s="9">
         <v>0</v>
       </c>
-      <c r="H165" s="9">
-        <v>0</v>
+      <c r="H165" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I165" s="9" t="s">
         <v>17</v>
@@ -6388,7 +6388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>20</v>
       </c>
@@ -6397,37 +6397,37 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>182279</v>
+        <v>284240</v>
       </c>
       <c r="F166" s="11">
-        <v>284240</v>
+        <v>1164132</v>
       </c>
       <c r="G166" s="11">
-        <v>1164132</v>
+        <v>332739</v>
       </c>
       <c r="H166" s="11">
-        <v>332739</v>
+        <v>957809</v>
       </c>
       <c r="I166" s="11">
-        <v>957809</v>
+        <v>1764809</v>
       </c>
       <c r="J166" s="11">
-        <v>1764809</v>
+        <v>2189032</v>
       </c>
       <c r="K166" s="11">
-        <v>2189032</v>
+        <v>1533424</v>
       </c>
       <c r="L166" s="11">
-        <v>1533424</v>
+        <v>2391296</v>
       </c>
       <c r="M166" s="11">
-        <v>2391296</v>
+        <v>1045624</v>
       </c>
       <c r="N166" s="11">
-        <v>1045624</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4252389</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>22</v>
       </c>
@@ -6436,25 +6436,25 @@
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
-        <v>11603</v>
+        <v>0</v>
       </c>
       <c r="F167" s="9">
-        <v>0</v>
+        <v>142923</v>
       </c>
       <c r="G167" s="9">
-        <v>142923</v>
+        <v>0</v>
       </c>
       <c r="H167" s="9">
-        <v>0</v>
+        <v>17889</v>
       </c>
       <c r="I167" s="9">
-        <v>17889</v>
+        <v>3512</v>
       </c>
       <c r="J167" s="9">
-        <v>3512</v>
+        <v>65751</v>
       </c>
       <c r="K167" s="9">
-        <v>65751</v>
+        <v>0</v>
       </c>
       <c r="L167" s="9">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>23</v>
       </c>
@@ -6475,11 +6475,11 @@
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
-        <v>21780</v>
-      </c>
-      <c r="F168" s="11">
         <v>5449</v>
       </c>
+      <c r="F168" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G168" s="11" t="s">
         <v>17</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>24</v>
       </c>
@@ -6514,11 +6514,11 @@
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
-        <v>423511</v>
-      </c>
-      <c r="F169" s="9">
         <v>-28467</v>
       </c>
+      <c r="F169" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G169" s="9" t="s">
         <v>17</v>
       </c>
@@ -6528,12 +6528,12 @@
       <c r="I169" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J169" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" s="9">
+      <c r="J169" s="9">
         <v>1755239</v>
       </c>
+      <c r="K169" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L169" s="9" t="s">
         <v>17</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>25</v>
       </c>
@@ -6553,37 +6553,37 @@
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
-        <v>71265</v>
+        <v>146355</v>
       </c>
       <c r="F170" s="11">
-        <v>146355</v>
+        <v>128104</v>
       </c>
       <c r="G170" s="11">
-        <v>128104</v>
+        <v>48976</v>
       </c>
       <c r="H170" s="11">
-        <v>48976</v>
+        <v>90053</v>
       </c>
       <c r="I170" s="11">
-        <v>90053</v>
+        <v>121631</v>
       </c>
       <c r="J170" s="11">
-        <v>121631</v>
+        <v>532378</v>
       </c>
       <c r="K170" s="11">
-        <v>532378</v>
+        <v>227579</v>
       </c>
       <c r="L170" s="11">
-        <v>227579</v>
+        <v>635351</v>
       </c>
       <c r="M170" s="11">
-        <v>635351</v>
+        <v>787730</v>
       </c>
       <c r="N170" s="11">
-        <v>787730</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>439983</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>26</v>
       </c>
@@ -6591,12 +6591,12 @@
         <v>47</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F171" s="9">
+      <c r="E171" s="9">
         <v>307253</v>
       </c>
+      <c r="F171" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G171" s="9" t="s">
         <v>17</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>27</v>
       </c>
@@ -6630,38 +6630,38 @@
         <v>47</v>
       </c>
       <c r="D172" s="11"/>
-      <c r="E172" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F172" s="11">
-        <v>0</v>
+      <c r="E172" s="11">
+        <v>0</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G172" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H172" s="11" t="s">
-        <v>17</v>
+      <c r="H172" s="11">
+        <v>631659</v>
       </c>
       <c r="I172" s="11">
-        <v>631659</v>
+        <v>587440</v>
       </c>
       <c r="J172" s="11">
-        <v>587440</v>
+        <v>1467265</v>
       </c>
       <c r="K172" s="11">
-        <v>1467265</v>
+        <v>577445</v>
       </c>
       <c r="L172" s="11">
-        <v>577445</v>
+        <v>749085</v>
       </c>
       <c r="M172" s="11">
-        <v>749085</v>
+        <v>1602478</v>
       </c>
       <c r="N172" s="11">
-        <v>1602478</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1400913</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>28</v>
       </c>
@@ -6670,37 +6670,37 @@
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
-        <v>582470</v>
+        <v>466259</v>
       </c>
       <c r="F173" s="9">
-        <v>466259</v>
+        <v>808256</v>
       </c>
       <c r="G173" s="9">
-        <v>808256</v>
+        <v>253172</v>
       </c>
       <c r="H173" s="9">
-        <v>253172</v>
+        <v>-253172</v>
       </c>
       <c r="I173" s="9">
-        <v>-253172</v>
+        <v>13011</v>
       </c>
       <c r="J173" s="9">
-        <v>13011</v>
+        <v>92775</v>
       </c>
       <c r="K173" s="9">
-        <v>92775</v>
+        <v>206823</v>
       </c>
       <c r="L173" s="9">
-        <v>206823</v>
+        <v>228395</v>
       </c>
       <c r="M173" s="9">
-        <v>228395</v>
+        <v>-213000</v>
       </c>
       <c r="N173" s="9">
-        <v>-213000</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+        <v>959866</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>29</v>
       </c>
@@ -6709,11 +6709,11 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>278781</v>
-      </c>
-      <c r="F174" s="11">
         <v>-111012</v>
       </c>
+      <c r="F174" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G174" s="11" t="s">
         <v>17</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>30</v>
       </c>
@@ -6748,11 +6748,11 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F175" s="9">
         <v>1</v>
       </c>
+      <c r="F175" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G175" s="9" t="s">
         <v>17</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>32</v>
       </c>
@@ -6798,26 +6798,26 @@
       <c r="H176" s="11">
         <v>0</v>
       </c>
-      <c r="I176" s="11">
-        <v>0</v>
+      <c r="I176" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J176" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K176" s="11" t="s">
-        <v>17</v>
+      <c r="K176" s="11">
+        <v>-112466</v>
       </c>
       <c r="L176" s="11">
-        <v>-112466</v>
+        <v>-237470</v>
       </c>
       <c r="M176" s="11">
-        <v>-237470</v>
+        <v>-198057</v>
       </c>
       <c r="N176" s="11">
-        <v>-198057</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+        <v>547993</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>33</v>
       </c>
@@ -6826,11 +6826,11 @@
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
-        <v>30838</v>
-      </c>
-      <c r="F177" s="9">
         <v>2134</v>
       </c>
+      <c r="F177" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G177" s="9" t="s">
         <v>17</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>34</v>
       </c>
@@ -6865,11 +6865,11 @@
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
-        <v>6201</v>
-      </c>
-      <c r="F178" s="11">
         <v>-369</v>
       </c>
+      <c r="F178" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G178" s="11" t="s">
         <v>17</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>35</v>
       </c>
@@ -6906,35 +6906,35 @@
       <c r="E179" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F179" s="9" t="s">
-        <v>17</v>
+      <c r="F179" s="9">
+        <v>55213</v>
       </c>
       <c r="G179" s="9">
-        <v>55213</v>
+        <v>0</v>
       </c>
       <c r="H179" s="9">
         <v>0</v>
       </c>
       <c r="I179" s="9">
-        <v>0</v>
+        <v>7563</v>
       </c>
       <c r="J179" s="9">
-        <v>7563</v>
+        <v>262328</v>
       </c>
       <c r="K179" s="9">
-        <v>262328</v>
+        <v>670469</v>
       </c>
       <c r="L179" s="9">
-        <v>670469</v>
+        <v>2065418</v>
       </c>
       <c r="M179" s="9">
-        <v>2065418</v>
+        <v>3896560</v>
       </c>
       <c r="N179" s="9">
-        <v>3896560</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8683629</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>36</v>
       </c>
@@ -6943,11 +6943,11 @@
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>41297</v>
-      </c>
-      <c r="F180" s="11">
         <v>55728</v>
       </c>
+      <c r="F180" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G180" s="11" t="s">
         <v>17</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>37</v>
       </c>
@@ -6984,35 +6984,35 @@
       <c r="E181" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F181" s="9" t="s">
-        <v>17</v>
+      <c r="F181" s="9">
+        <v>526291</v>
       </c>
       <c r="G181" s="9">
-        <v>526291</v>
+        <v>894</v>
       </c>
       <c r="H181" s="9">
-        <v>894</v>
+        <v>522850</v>
       </c>
       <c r="I181" s="9">
-        <v>522850</v>
-      </c>
-      <c r="J181" s="9">
         <v>488871</v>
       </c>
-      <c r="K181" s="9" t="s">
-        <v>17</v>
+      <c r="J181" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K181" s="9">
+        <v>90078</v>
       </c>
       <c r="L181" s="9">
-        <v>90078</v>
+        <v>760424</v>
       </c>
       <c r="M181" s="9">
-        <v>760424</v>
+        <v>117697</v>
       </c>
       <c r="N181" s="9">
-        <v>117697</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1091699</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>44</v>
       </c>
@@ -7023,8 +7023,8 @@
       <c r="E182" s="11">
         <v>0</v>
       </c>
-      <c r="F182" s="11">
-        <v>0</v>
+      <c r="F182" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G182" s="11" t="s">
         <v>17</v>
@@ -7051,7 +7051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>45</v>
       </c>
@@ -7059,8 +7059,8 @@
         <v>47</v>
       </c>
       <c r="D183" s="9"/>
-      <c r="E183" s="9">
-        <v>0</v>
+      <c r="E183" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F183" s="9" t="s">
         <v>17</v>
@@ -7090,7 +7090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>38</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>39</v>
       </c>
@@ -7137,11 +7137,11 @@
         <v>47</v>
       </c>
       <c r="D185" s="9"/>
-      <c r="E185" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="9">
-        <v>0</v>
+      <c r="E185" s="9">
+        <v>0</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G185" s="9" t="s">
         <v>17</v>
@@ -7168,7 +7168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>40</v>
       </c>
@@ -7179,69 +7179,69 @@
       <c r="E186" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F186" s="11" t="s">
-        <v>17</v>
+      <c r="F186" s="11">
+        <v>856345</v>
       </c>
       <c r="G186" s="11">
-        <v>856345</v>
+        <v>301748</v>
       </c>
       <c r="H186" s="11">
-        <v>301748</v>
+        <v>1062160</v>
       </c>
       <c r="I186" s="11">
-        <v>1062160</v>
+        <v>1939524</v>
       </c>
       <c r="J186" s="11">
-        <v>1939524</v>
+        <v>1325340</v>
       </c>
       <c r="K186" s="11">
-        <v>1325340</v>
+        <v>319810</v>
       </c>
       <c r="L186" s="11">
-        <v>319810</v>
+        <v>710327</v>
       </c>
       <c r="M186" s="11">
-        <v>710327</v>
+        <v>1173531</v>
       </c>
       <c r="N186" s="11">
-        <v>1173531</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+        <v>839650</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13">
-        <v>1650024</v>
+        <v>1127571</v>
       </c>
       <c r="F187" s="13">
-        <v>1127571</v>
+        <v>3681264</v>
       </c>
       <c r="G187" s="13">
-        <v>3681264</v>
+        <v>937529</v>
       </c>
       <c r="H187" s="13">
-        <v>937529</v>
+        <v>3029248</v>
       </c>
       <c r="I187" s="13">
-        <v>3029248</v>
+        <v>4428092</v>
       </c>
       <c r="J187" s="13">
-        <v>4428092</v>
+        <v>6778136</v>
       </c>
       <c r="K187" s="13">
-        <v>6778136</v>
+        <v>3513162</v>
       </c>
       <c r="L187" s="13">
-        <v>3513162</v>
+        <v>7302826</v>
       </c>
       <c r="M187" s="13">
-        <v>7302826</v>
+        <v>8212563</v>
       </c>
       <c r="N187" s="13">
-        <v>8212563</v>
+        <v>18216122</v>
       </c>
     </row>
   </sheetData>
